--- a/#State Mapping Status.xlsx
+++ b/#State Mapping Status.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/LENS project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejacobson/Documents/SEARCH/LENS project/DHS-LENSgit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34940" yWindow="-1440" windowWidth="28800" windowHeight="16640"/>
+    <workbookView xWindow="30760" yWindow="-1440" windowWidth="32980" windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="SEARCH" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
   <si>
     <t>State</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Dawn Peck</t>
   </si>
   <si>
-    <t>only statute and NCIC code included in table</t>
-  </si>
-  <si>
     <t>Brandon Cobb / Lt. Col. Jeff Medley</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>Eduardo Cancel-Maldonado</t>
+  </si>
+  <si>
+    <t>only statute and NCIC code included in table (not very good mappings)</t>
   </si>
 </sst>
 </file>
@@ -773,8 +773,8 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -919,7 +919,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -946,7 +946,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1094,7 +1094,7 @@
         <v>111</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1539,6 +1539,9 @@
       <c r="H31" s="2"/>
       <c r="I31" s="4" t="s">
         <v>99</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1611,7 +1614,7 @@
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1663,7 +1666,7 @@
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
